--- a/FullResults.xlsx
+++ b/FullResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/koorosh_roohi_mail_utoronto_ca/Documents/Project/Quarantine/Ph.D/Code/mmaction2/mmaction2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="11_F25DC773A252ABDACC10486199DF45C25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C82AE4F-8629-4EC7-8E15-798DC93C8693}"/>
+  <xr:revisionPtr revIDLastSave="1232" documentId="11_F25DC773A252ABDACC10486199DF45C25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15ACAFCA-EBD7-41D6-939D-7333E0352351}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>DataFold</t>
+  </si>
+  <si>
+    <t>ResNet50, 8x8x1, linear+cosine</t>
   </si>
 </sst>
 </file>
@@ -146,25 +149,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -399,6 +383,25 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -412,22 +415,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C547064A-B086-4D08-95FA-5F44AC26E252}" name="Table1" displayName="Table1" ref="A1:L97" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:L97" xr:uid="{C547064A-B086-4D08-95FA-5F44AC26E252}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C547064A-B086-4D08-95FA-5F44AC26E252}" name="Table1" displayName="Table1" ref="A1:L248" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L248" xr:uid="{C547064A-B086-4D08-95FA-5F44AC26E252}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5E7F968E-DED1-4904-BB34-40B76A553D01}" name="Model" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E804DDCF-D8CE-4D0C-86EF-FE2B5D0D7849}" name="Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B42082A3-D9DB-4F82-AD19-EE858153348A}" name="ValidationTechnique" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{D3E479C8-617E-470A-992A-5948C3F4FBCF}" name="DataFold" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C3DFBDCC-13D2-4866-8A6B-FEB9BF7B8D34}" name="SampleLength" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E2F660EB-8612-4425-B93F-93E5614D562D}" name="Interval" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{BA7E9E07-F06D-4EDB-BD6D-CF47E81C0455}" name="BatchSize" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{25736AAB-7D17-415E-82FF-7CE19DE70519}" name="TrainedEpochs" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{980F5369-2C98-435B-B5F7-01C97BE37C22}" name="Acc" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{0CB6F53E-2747-4445-9E98-E861AAE7CE73}" name="Top5Acc" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E29A1DF8-488F-4924-9798-D1EE7B2C2FFC}" name="MeanAcc" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{ACA2473D-BC83-491D-BD00-8DA7C1139F25}" name="F1-score" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5E7F968E-DED1-4904-BB34-40B76A553D01}" name="Model" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E804DDCF-D8CE-4D0C-86EF-FE2B5D0D7849}" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{B42082A3-D9DB-4F82-AD19-EE858153348A}" name="ValidationTechnique" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{D3E479C8-617E-470A-992A-5948C3F4FBCF}" name="DataFold" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C3DFBDCC-13D2-4866-8A6B-FEB9BF7B8D34}" name="SampleLength" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E2F660EB-8612-4425-B93F-93E5614D562D}" name="Interval" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BA7E9E07-F06D-4EDB-BD6D-CF47E81C0455}" name="BatchSize" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{25736AAB-7D17-415E-82FF-7CE19DE70519}" name="TrainedEpochs" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{980F5369-2C98-435B-B5F7-01C97BE37C22}" name="Acc" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{0CB6F53E-2747-4445-9E98-E861AAE7CE73}" name="Top5Acc" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E29A1DF8-488F-4924-9798-D1EE7B2C2FFC}" name="MeanAcc" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{ACA2473D-BC83-491D-BD00-8DA7C1139F25}" name="F1-score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="D128" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,25 +2847,25 @@
         <v>64</v>
       </c>
       <c r="F56" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I56" s="1">
-        <v>91.07</v>
+        <v>89.35</v>
       </c>
       <c r="J56" s="1">
         <v>99.66</v>
       </c>
       <c r="K56" s="1">
-        <v>88.73</v>
+        <v>85.53</v>
       </c>
       <c r="L56" s="1">
-        <v>83.85</v>
+        <v>82.59</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2878,25 +2885,25 @@
         <v>64</v>
       </c>
       <c r="F57" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G57" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I57" s="1">
-        <v>84.88</v>
+        <v>85.91</v>
       </c>
       <c r="J57" s="1">
-        <v>98.97</v>
+        <v>98.63</v>
       </c>
       <c r="K57" s="1">
-        <v>81.99</v>
+        <v>83.11</v>
       </c>
       <c r="L57" s="1">
-        <v>77.599999999999994</v>
+        <v>79.790000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2916,25 +2923,25 @@
         <v>64</v>
       </c>
       <c r="F58" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I58" s="1">
-        <v>93.81</v>
+        <v>90.38</v>
       </c>
       <c r="J58" s="1">
         <v>100</v>
       </c>
       <c r="K58" s="1">
-        <v>91.24</v>
+        <v>87.69</v>
       </c>
       <c r="L58" s="1">
-        <v>87.48</v>
+        <v>83.88</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2954,25 +2961,10 @@
         <v>64</v>
       </c>
       <c r="F59" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G59" s="1">
-        <v>8</v>
-      </c>
-      <c r="H59" s="1">
-        <v>36</v>
-      </c>
-      <c r="I59" s="1">
-        <v>85.91</v>
-      </c>
-      <c r="J59" s="1">
-        <v>98.97</v>
-      </c>
-      <c r="K59" s="1">
-        <v>82.12</v>
-      </c>
-      <c r="L59" s="1">
-        <v>77.959999999999994</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2992,25 +2984,10 @@
         <v>64</v>
       </c>
       <c r="F60" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
-      </c>
-      <c r="H60" s="1">
-        <v>39</v>
-      </c>
-      <c r="I60" s="1">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="J60" s="1">
-        <v>98.63</v>
-      </c>
-      <c r="K60" s="1">
-        <v>75.94</v>
-      </c>
-      <c r="L60" s="1">
-        <v>71.55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3030,25 +3007,3791 @@
         <v>64</v>
       </c>
       <c r="F61" s="1">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>64</v>
+      </c>
+      <c r="F62" s="1">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1">
+        <v>48</v>
+      </c>
+      <c r="I62" s="1">
+        <v>91.07</v>
+      </c>
+      <c r="J62" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K62" s="1">
+        <v>88.73</v>
+      </c>
+      <c r="L62" s="1">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>64</v>
+      </c>
+      <c r="F63" s="1">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1">
+        <v>51</v>
+      </c>
+      <c r="I63" s="1">
+        <v>84.88</v>
+      </c>
+      <c r="J63" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K63" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="L63" s="1">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1">
+        <v>60</v>
+      </c>
+      <c r="I64" s="1">
+        <v>93.81</v>
+      </c>
+      <c r="J64" s="1">
+        <v>100</v>
+      </c>
+      <c r="K64" s="1">
+        <v>91.24</v>
+      </c>
+      <c r="L64" s="1">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
+        <v>16</v>
+      </c>
+      <c r="H65" s="1">
+        <v>93</v>
+      </c>
+      <c r="I65" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="J65" s="1">
+        <v>100</v>
+      </c>
+      <c r="K65" s="1">
+        <v>94.15</v>
+      </c>
+      <c r="L65" s="1">
+        <v>90.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>64</v>
+      </c>
+      <c r="F66" s="1">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1">
+        <v>16</v>
+      </c>
+      <c r="H66" s="1">
+        <v>93</v>
+      </c>
+      <c r="I66" s="1">
+        <v>91.41</v>
+      </c>
+      <c r="J66" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K66" s="1">
+        <v>89.08</v>
+      </c>
+      <c r="L66" s="1">
+        <v>85.98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>64</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>16</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>93.13</v>
+      </c>
+      <c r="J67" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K67" s="1">
+        <v>90.67</v>
+      </c>
+      <c r="L67" s="1">
+        <v>86.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>64</v>
+      </c>
+      <c r="F68" s="1">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>64</v>
+      </c>
+      <c r="F70" s="1">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>64</v>
+      </c>
+      <c r="F71" s="1">
         <v>20</v>
       </c>
-      <c r="G61" s="1">
-        <v>8</v>
-      </c>
-      <c r="H61" s="1">
+      <c r="G71" s="1">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1">
+        <v>36</v>
+      </c>
+      <c r="I71" s="1">
+        <v>85.91</v>
+      </c>
+      <c r="J71" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K71" s="1">
+        <v>82.12</v>
+      </c>
+      <c r="L71" s="1">
+        <v>77.959999999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>64</v>
+      </c>
+      <c r="F72" s="1">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1">
+        <v>8</v>
+      </c>
+      <c r="H72" s="1">
         <v>39</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I72" s="1">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="J72" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K72" s="1">
+        <v>75.94</v>
+      </c>
+      <c r="L72" s="1">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>64</v>
+      </c>
+      <c r="F73" s="1">
+        <v>20</v>
+      </c>
+      <c r="G73" s="1">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1">
+        <v>39</v>
+      </c>
+      <c r="I73" s="1">
         <v>85.91</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J73" s="1">
         <v>100</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K73" s="1">
         <v>82.86</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L73" s="1">
         <v>77.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>64</v>
+      </c>
+      <c r="F74" s="1">
+        <v>20</v>
+      </c>
+      <c r="G74" s="1">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1">
+        <v>60</v>
+      </c>
+      <c r="I74" s="1">
+        <v>88.32</v>
+      </c>
+      <c r="J74" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K74" s="1">
+        <v>85.67</v>
+      </c>
+      <c r="L74" s="1">
+        <v>81.569999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>64</v>
+      </c>
+      <c r="F75" s="1">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1">
+        <v>54</v>
+      </c>
+      <c r="I75" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="J75" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K75" s="1">
+        <v>85.19</v>
+      </c>
+      <c r="L75" s="1">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>64</v>
+      </c>
+      <c r="F76" s="1">
+        <v>20</v>
+      </c>
+      <c r="G76" s="1">
+        <v>16</v>
+      </c>
+      <c r="H76" s="1">
+        <v>60</v>
+      </c>
+      <c r="I76" s="1">
+        <v>89.69</v>
+      </c>
+      <c r="J76" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K76" s="1">
+        <v>85.89</v>
+      </c>
+      <c r="L76" s="1">
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>64</v>
+      </c>
+      <c r="F77" s="1">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>64</v>
+      </c>
+      <c r="F78" s="1">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>64</v>
+      </c>
+      <c r="F79" s="1">
+        <v>20</v>
+      </c>
+      <c r="G79" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>16</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1">
+        <v>78</v>
+      </c>
+      <c r="I80" s="1">
+        <v>74.23</v>
+      </c>
+      <c r="J80" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K80" s="1">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="L80" s="1">
+        <v>61.78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>16</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1">
+        <v>99</v>
+      </c>
+      <c r="I81" s="1">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="J81" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K81" s="1">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="L81" s="1">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>16</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1">
+        <v>93</v>
+      </c>
+      <c r="I82" s="1">
+        <v>71.13</v>
+      </c>
+      <c r="J82" s="1">
+        <v>97.59</v>
+      </c>
+      <c r="K82" s="1">
+        <v>62.92</v>
+      </c>
+      <c r="L82" s="1">
+        <v>56.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>16</v>
+      </c>
+      <c r="F83" s="1">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1">
+        <v>84</v>
+      </c>
+      <c r="I83" s="1">
+        <v>81.44</v>
+      </c>
+      <c r="J83" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K83" s="1">
+        <v>75.95</v>
+      </c>
+      <c r="L83" s="1">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>16</v>
+      </c>
+      <c r="F84" s="1">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1">
+        <v>96</v>
+      </c>
+      <c r="I84" s="1">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="J84" s="1">
+        <v>98.28</v>
+      </c>
+      <c r="K84" s="1">
+        <v>72.23</v>
+      </c>
+      <c r="L84" s="1">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1">
+        <v>16</v>
+      </c>
+      <c r="F85" s="1">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1">
+        <v>90</v>
+      </c>
+      <c r="I85" s="1">
+        <v>79.38</v>
+      </c>
+      <c r="J85" s="1">
+        <v>97.94</v>
+      </c>
+      <c r="K85" s="1">
+        <v>72.63</v>
+      </c>
+      <c r="L85" s="1">
+        <v>69.349999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>16</v>
+      </c>
+      <c r="F86" s="1">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1">
+        <v>96</v>
+      </c>
+      <c r="I86" s="1">
+        <v>89.35</v>
+      </c>
+      <c r="J86" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K86" s="1">
+        <v>86.07</v>
+      </c>
+      <c r="L86" s="1">
+        <v>82.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>16</v>
+      </c>
+      <c r="F87" s="1">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1">
+        <v>78</v>
+      </c>
+      <c r="I87" s="1">
+        <v>84.19</v>
+      </c>
+      <c r="J87" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K87" s="1">
+        <v>81.58</v>
+      </c>
+      <c r="L87" s="1">
+        <v>77.64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16</v>
+      </c>
+      <c r="F88" s="1">
+        <v>20</v>
+      </c>
+      <c r="G88" s="1">
+        <v>8</v>
+      </c>
+      <c r="H88" s="1">
+        <v>81</v>
+      </c>
+      <c r="I88" s="1">
+        <v>88.66</v>
+      </c>
+      <c r="J88" s="1">
+        <v>100</v>
+      </c>
+      <c r="K88" s="1">
+        <v>85.18</v>
+      </c>
+      <c r="L88" s="1">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>16</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>16</v>
+      </c>
+      <c r="H89" s="1">
+        <v>96</v>
+      </c>
+      <c r="I89" s="1">
+        <v>89.69</v>
+      </c>
+      <c r="J89" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K89" s="1">
+        <v>86.12</v>
+      </c>
+      <c r="L89" s="1">
+        <v>82.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>16</v>
+      </c>
+      <c r="F90" s="1">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
+        <v>16</v>
+      </c>
+      <c r="H90" s="1">
+        <v>87</v>
+      </c>
+      <c r="I90" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="J90" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K90" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="L90" s="1">
+        <v>82.47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>16</v>
+      </c>
+      <c r="F91" s="1">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1">
+        <v>16</v>
+      </c>
+      <c r="H91" s="1">
+        <v>87</v>
+      </c>
+      <c r="I91" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="J91" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K91" s="1">
+        <v>84</v>
+      </c>
+      <c r="L91" s="1">
+        <v>79.83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>16</v>
+      </c>
+      <c r="F92" s="1">
+        <v>20</v>
+      </c>
+      <c r="G92" s="1">
+        <v>32</v>
+      </c>
+      <c r="H92" s="1">
+        <v>93</v>
+      </c>
+      <c r="I92" s="1">
+        <v>89.35</v>
+      </c>
+      <c r="J92" s="1">
+        <v>100</v>
+      </c>
+      <c r="K92" s="1">
+        <v>86.78</v>
+      </c>
+      <c r="L92" s="1">
+        <v>82.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>16</v>
+      </c>
+      <c r="F93" s="1">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1">
+        <v>32</v>
+      </c>
+      <c r="H93" s="1">
+        <v>87</v>
+      </c>
+      <c r="I93" s="1">
+        <v>86.25</v>
+      </c>
+      <c r="J93" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K93" s="1">
+        <v>84</v>
+      </c>
+      <c r="L93" s="1">
+        <v>80.569999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>16</v>
+      </c>
+      <c r="F94" s="1">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1">
+        <v>32</v>
+      </c>
+      <c r="H94" s="1">
+        <v>81</v>
+      </c>
+      <c r="I94" s="1">
+        <v>86.94</v>
+      </c>
+      <c r="J94" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K94" s="1">
+        <v>82.93</v>
+      </c>
+      <c r="L94" s="1">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>16</v>
+      </c>
+      <c r="F95" s="1">
+        <v>30</v>
+      </c>
+      <c r="G95" s="1">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1">
+        <v>99</v>
+      </c>
+      <c r="I95" s="1">
+        <v>93.81</v>
+      </c>
+      <c r="J95" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K95" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>88.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>16</v>
+      </c>
+      <c r="F96" s="1">
+        <v>30</v>
+      </c>
+      <c r="G96" s="1">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1">
+        <v>87</v>
+      </c>
+      <c r="I96" s="1">
+        <v>91.07</v>
+      </c>
+      <c r="J96" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K96" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="L96" s="1">
+        <v>86.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>16</v>
+      </c>
+      <c r="F97" s="1">
+        <v>30</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1">
+        <v>60</v>
+      </c>
+      <c r="I97" s="1">
+        <v>91.07</v>
+      </c>
+      <c r="J97" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K97" s="1">
+        <v>88.74</v>
+      </c>
+      <c r="L97" s="1">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>16</v>
+      </c>
+      <c r="F98" s="1">
+        <v>30</v>
+      </c>
+      <c r="G98" s="1">
+        <v>16</v>
+      </c>
+      <c r="H98" s="1">
+        <v>99</v>
+      </c>
+      <c r="I98" s="1">
+        <v>94.85</v>
+      </c>
+      <c r="J98" s="1">
+        <v>100</v>
+      </c>
+      <c r="K98" s="1">
+        <v>94.27</v>
+      </c>
+      <c r="L98" s="1">
+        <v>90.58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>16</v>
+      </c>
+      <c r="F99" s="1">
+        <v>30</v>
+      </c>
+      <c r="G99" s="1">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1">
+        <v>96</v>
+      </c>
+      <c r="I99" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="J99" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K99" s="1">
+        <v>88.15</v>
+      </c>
+      <c r="L99" s="1">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>16</v>
+      </c>
+      <c r="F100" s="1">
+        <v>30</v>
+      </c>
+      <c r="G100" s="1">
+        <v>16</v>
+      </c>
+      <c r="H100" s="1">
+        <v>93</v>
+      </c>
+      <c r="I100" s="1">
+        <v>92.78</v>
+      </c>
+      <c r="J100" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K100" s="1">
+        <v>90.71</v>
+      </c>
+      <c r="L100" s="1">
+        <v>86.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>16</v>
+      </c>
+      <c r="F101" s="1">
+        <v>30</v>
+      </c>
+      <c r="G101" s="1">
+        <v>32</v>
+      </c>
+      <c r="H101" s="1">
+        <v>81</v>
+      </c>
+      <c r="I101" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="J101" s="1">
+        <v>100</v>
+      </c>
+      <c r="K101" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="L101" s="1">
+        <v>89.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>16</v>
+      </c>
+      <c r="F102" s="1">
+        <v>30</v>
+      </c>
+      <c r="G102" s="1">
+        <v>32</v>
+      </c>
+      <c r="H102" s="1">
+        <v>99</v>
+      </c>
+      <c r="I102" s="1">
+        <v>89.69</v>
+      </c>
+      <c r="J102" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K102" s="1">
+        <v>88.78</v>
+      </c>
+      <c r="L102" s="1">
+        <v>85.45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1">
+        <v>16</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30</v>
+      </c>
+      <c r="G103" s="1">
+        <v>32</v>
+      </c>
+      <c r="H103" s="1">
+        <v>90</v>
+      </c>
+      <c r="I103" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K103" s="1">
+        <v>89.94</v>
+      </c>
+      <c r="L103" s="1">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>16</v>
+      </c>
+      <c r="F104" s="1">
+        <v>40</v>
+      </c>
+      <c r="G104" s="1">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1">
+        <v>81</v>
+      </c>
+      <c r="I104" s="1">
+        <v>93.47</v>
+      </c>
+      <c r="J104" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K104" s="1">
+        <v>92.07</v>
+      </c>
+      <c r="L104" s="1">
+        <v>88.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1">
+        <v>40</v>
+      </c>
+      <c r="G105" s="1">
+        <v>8</v>
+      </c>
+      <c r="H105" s="1">
+        <v>81</v>
+      </c>
+      <c r="I105" s="1">
+        <v>91.41</v>
+      </c>
+      <c r="J105" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K105" s="1">
+        <v>90.61</v>
+      </c>
+      <c r="L105" s="1">
+        <v>86.65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>16</v>
+      </c>
+      <c r="F106" s="1">
+        <v>40</v>
+      </c>
+      <c r="G106" s="1">
+        <v>8</v>
+      </c>
+      <c r="H106" s="1">
+        <v>66</v>
+      </c>
+      <c r="I106" s="1">
+        <v>91.07</v>
+      </c>
+      <c r="J106" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K106" s="1">
+        <v>88.3</v>
+      </c>
+      <c r="L106" s="1">
+        <v>84.16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>32</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1">
+        <v>8</v>
+      </c>
+      <c r="H107" s="1">
+        <v>93</v>
+      </c>
+      <c r="I107" s="1">
+        <v>82.82</v>
+      </c>
+      <c r="J107" s="1">
+        <v>100</v>
+      </c>
+      <c r="K107" s="1">
+        <v>77.44</v>
+      </c>
+      <c r="L107" s="1">
+        <v>73.48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>32</v>
+      </c>
+      <c r="F108" s="1">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1">
+        <v>8</v>
+      </c>
+      <c r="H108" s="1">
+        <v>84</v>
+      </c>
+      <c r="I108" s="1">
+        <v>73.88</v>
+      </c>
+      <c r="J108" s="1">
+        <v>97.25</v>
+      </c>
+      <c r="K108" s="1">
+        <v>69.84</v>
+      </c>
+      <c r="L108" s="1">
+        <v>64.959999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1">
+        <v>32</v>
+      </c>
+      <c r="F109" s="1">
+        <v>5</v>
+      </c>
+      <c r="G109" s="1">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1">
+        <v>84</v>
+      </c>
+      <c r="I109" s="1">
+        <v>76.63</v>
+      </c>
+      <c r="J109" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K109" s="1">
+        <v>67.11</v>
+      </c>
+      <c r="L109" s="1">
+        <v>62.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>32</v>
+      </c>
+      <c r="F110" s="1">
+        <v>10</v>
+      </c>
+      <c r="G110" s="1">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1">
+        <v>84</v>
+      </c>
+      <c r="I110" s="1">
+        <v>91.41</v>
+      </c>
+      <c r="J110" s="1">
+        <v>100</v>
+      </c>
+      <c r="K110" s="1">
+        <v>88.78</v>
+      </c>
+      <c r="L110" s="1">
+        <v>85.51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>32</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1">
+        <v>96</v>
+      </c>
+      <c r="I111" s="1">
+        <v>87.63</v>
+      </c>
+      <c r="J111" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K111" s="1">
+        <v>85.57</v>
+      </c>
+      <c r="L111" s="1">
+        <v>81.739999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
+        <v>32</v>
+      </c>
+      <c r="F112" s="1">
+        <v>10</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1">
+        <v>81</v>
+      </c>
+      <c r="I112" s="1">
+        <v>89.35</v>
+      </c>
+      <c r="J112" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K112" s="1">
+        <v>87.49</v>
+      </c>
+      <c r="L112" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>32</v>
+      </c>
+      <c r="F113" s="1">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>16</v>
+      </c>
+      <c r="H113" s="1">
+        <v>84</v>
+      </c>
+      <c r="I113" s="1">
+        <v>91.75</v>
+      </c>
+      <c r="J113" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K113" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="L113" s="1">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>32</v>
+      </c>
+      <c r="F114" s="1">
+        <v>10</v>
+      </c>
+      <c r="G114" s="1">
+        <v>16</v>
+      </c>
+      <c r="H114" s="1">
+        <v>99</v>
+      </c>
+      <c r="I114" s="1">
+        <v>89.69</v>
+      </c>
+      <c r="J114" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K114" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="L114" s="1">
+        <v>84.36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>32</v>
+      </c>
+      <c r="F115" s="1">
+        <v>10</v>
+      </c>
+      <c r="G115" s="1">
+        <v>16</v>
+      </c>
+      <c r="H115" s="1">
+        <v>90</v>
+      </c>
+      <c r="I115" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="J115" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K115" s="1">
+        <v>87.53</v>
+      </c>
+      <c r="L115" s="1">
+        <v>83.38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>32</v>
+      </c>
+      <c r="F116" s="1">
+        <v>10</v>
+      </c>
+      <c r="G116" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>32</v>
+      </c>
+      <c r="F117" s="1">
+        <v>10</v>
+      </c>
+      <c r="G117" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
+        <v>32</v>
+      </c>
+      <c r="F118" s="1">
+        <v>10</v>
+      </c>
+      <c r="G118" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>32</v>
+      </c>
+      <c r="F119" s="1">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1">
+        <v>72</v>
+      </c>
+      <c r="I119" s="1">
+        <v>95.53</v>
+      </c>
+      <c r="J119" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K119" s="1">
+        <v>94.37</v>
+      </c>
+      <c r="L119" s="1">
+        <v>90.82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>32</v>
+      </c>
+      <c r="F120" s="1">
+        <v>20</v>
+      </c>
+      <c r="G120" s="1">
+        <v>8</v>
+      </c>
+      <c r="H120" s="1">
+        <v>93</v>
+      </c>
+      <c r="I120" s="1">
+        <v>92.44</v>
+      </c>
+      <c r="J120" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K120" s="1">
+        <v>91.05</v>
+      </c>
+      <c r="L120" s="1">
+        <v>86.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1">
+        <v>32</v>
+      </c>
+      <c r="F121" s="1">
+        <v>20</v>
+      </c>
+      <c r="G121" s="1">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1">
+        <v>90</v>
+      </c>
+      <c r="I121" s="1">
+        <v>94.16</v>
+      </c>
+      <c r="J121" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K121" s="1">
+        <v>92.26</v>
+      </c>
+      <c r="L121" s="1">
+        <v>87.91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>32</v>
+      </c>
+      <c r="F122" s="1">
+        <v>20</v>
+      </c>
+      <c r="G122" s="1">
+        <v>16</v>
+      </c>
+      <c r="H122" s="1">
+        <v>54</v>
+      </c>
+      <c r="I122" s="1">
+        <v>93.81</v>
+      </c>
+      <c r="J122" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K122" s="1">
+        <v>93.07</v>
+      </c>
+      <c r="L122" s="1">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>32</v>
+      </c>
+      <c r="F123" s="1">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1">
+        <v>16</v>
+      </c>
+      <c r="H123" s="1">
+        <v>87</v>
+      </c>
+      <c r="I123" s="1">
+        <v>93.47</v>
+      </c>
+      <c r="J123" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K123" s="1">
+        <v>92.21</v>
+      </c>
+      <c r="L123" s="1">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>32</v>
+      </c>
+      <c r="F124" s="1">
+        <v>20</v>
+      </c>
+      <c r="G124" s="1">
+        <v>16</v>
+      </c>
+      <c r="H124" s="1">
+        <v>93</v>
+      </c>
+      <c r="I124" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="J124" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K124" s="1">
+        <v>93.19</v>
+      </c>
+      <c r="L124" s="1">
+        <v>89.26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>32</v>
+      </c>
+      <c r="F125" s="1">
+        <v>20</v>
+      </c>
+      <c r="G125" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>32</v>
+      </c>
+      <c r="F126" s="1">
+        <v>20</v>
+      </c>
+      <c r="G126" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1">
+        <v>32</v>
+      </c>
+      <c r="F127" s="1">
+        <v>20</v>
+      </c>
+      <c r="G127" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>32</v>
+      </c>
+      <c r="F128" s="1">
+        <v>30</v>
+      </c>
+      <c r="G128" s="1">
+        <v>8</v>
+      </c>
+      <c r="H128" s="1">
+        <v>66</v>
+      </c>
+      <c r="I128" s="1">
+        <v>91.41</v>
+      </c>
+      <c r="J128" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K128" s="1">
+        <v>89.52</v>
+      </c>
+      <c r="L128" s="1">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1">
+        <v>32</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+      <c r="G129" s="1">
+        <v>8</v>
+      </c>
+      <c r="H129" s="1">
+        <v>66</v>
+      </c>
+      <c r="I129" s="1">
+        <v>93.13</v>
+      </c>
+      <c r="J129" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K129" s="1">
+        <v>92.94</v>
+      </c>
+      <c r="L129" s="1">
+        <v>89.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1">
+        <v>32</v>
+      </c>
+      <c r="F130" s="1">
+        <v>30</v>
+      </c>
+      <c r="G130" s="1">
+        <v>8</v>
+      </c>
+      <c r="H130" s="1">
+        <v>57</v>
+      </c>
+      <c r="I130" s="1">
+        <v>93.13</v>
+      </c>
+      <c r="J130" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="K130" s="1">
+        <v>92.01</v>
+      </c>
+      <c r="L130" s="1">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>32</v>
+      </c>
+      <c r="F131" s="1">
+        <v>30</v>
+      </c>
+      <c r="G131" s="1">
+        <v>16</v>
+      </c>
+      <c r="H131" s="1">
+        <v>69</v>
+      </c>
+      <c r="I131" s="1">
+        <v>91.41</v>
+      </c>
+      <c r="J131" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K131" s="1">
+        <v>89.93</v>
+      </c>
+      <c r="L131" s="1">
+        <v>85.47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2</v>
+      </c>
+      <c r="E132" s="1">
+        <v>32</v>
+      </c>
+      <c r="F132" s="1">
+        <v>30</v>
+      </c>
+      <c r="G132" s="1">
+        <v>16</v>
+      </c>
+      <c r="H132" s="1">
+        <v>78</v>
+      </c>
+      <c r="I132" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="J132" s="1">
+        <v>98.97</v>
+      </c>
+      <c r="K132" s="1">
+        <v>87.47</v>
+      </c>
+      <c r="L132" s="1">
+        <v>84.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1">
+        <v>32</v>
+      </c>
+      <c r="F133" s="1">
+        <v>30</v>
+      </c>
+      <c r="G133" s="1">
+        <v>16</v>
+      </c>
+      <c r="H133" s="1">
+        <v>75</v>
+      </c>
+      <c r="I133" s="1">
+        <v>91.75</v>
+      </c>
+      <c r="J133" s="1">
+        <v>100</v>
+      </c>
+      <c r="K133" s="1">
+        <v>89.44</v>
+      </c>
+      <c r="L133" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>32</v>
+      </c>
+      <c r="F134" s="1">
+        <v>30</v>
+      </c>
+      <c r="G134" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>32</v>
+      </c>
+      <c r="F135" s="1">
+        <v>30</v>
+      </c>
+      <c r="G135" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1">
+        <v>32</v>
+      </c>
+      <c r="F136" s="1">
+        <v>30</v>
+      </c>
+      <c r="G136" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>64</v>
+      </c>
+      <c r="F137" s="1">
+        <v>5</v>
+      </c>
+      <c r="G137" s="1">
+        <v>8</v>
+      </c>
+      <c r="H137" s="1">
+        <v>93</v>
+      </c>
+      <c r="I137" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="J137" s="1">
+        <v>100</v>
+      </c>
+      <c r="K137" s="1">
+        <v>86.44</v>
+      </c>
+      <c r="L137" s="1">
+        <v>83.81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>64</v>
+      </c>
+      <c r="F138" s="1">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1">
+        <v>8</v>
+      </c>
+      <c r="H138" s="1">
+        <v>78</v>
+      </c>
+      <c r="I138" s="1">
+        <v>84.19</v>
+      </c>
+      <c r="J138" s="1">
+        <v>99.31</v>
+      </c>
+      <c r="K138" s="1">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="L138" s="1">
+        <v>77.39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1">
+        <v>64</v>
+      </c>
+      <c r="F139" s="1">
+        <v>5</v>
+      </c>
+      <c r="G139" s="1">
+        <v>8</v>
+      </c>
+      <c r="H139" s="1">
+        <v>96</v>
+      </c>
+      <c r="I139" s="1">
+        <v>89.69</v>
+      </c>
+      <c r="J139" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="K139" s="1">
+        <v>86.82</v>
+      </c>
+      <c r="L139" s="1">
+        <v>82.86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>64</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+      <c r="G140" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2</v>
+      </c>
+      <c r="E141" s="1">
+        <v>64</v>
+      </c>
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1">
+        <v>64</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>64</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2</v>
+      </c>
+      <c r="E144" s="1">
+        <v>64</v>
+      </c>
+      <c r="F144" s="1">
+        <v>5</v>
+      </c>
+      <c r="G144" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1">
+        <v>64</v>
+      </c>
+      <c r="F145" s="1">
+        <v>5</v>
+      </c>
+      <c r="G145" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>64</v>
+      </c>
+      <c r="F146" s="1">
+        <v>10</v>
+      </c>
+      <c r="G146" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2</v>
+      </c>
+      <c r="E147" s="1">
+        <v>64</v>
+      </c>
+      <c r="F147" s="1">
+        <v>10</v>
+      </c>
+      <c r="G147" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3</v>
+      </c>
+      <c r="E148" s="1">
+        <v>64</v>
+      </c>
+      <c r="F148" s="1">
+        <v>10</v>
+      </c>
+      <c r="G148" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>64</v>
+      </c>
+      <c r="F149" s="1">
+        <v>10</v>
+      </c>
+      <c r="G149" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1">
+        <v>64</v>
+      </c>
+      <c r="F150" s="1">
+        <v>10</v>
+      </c>
+      <c r="G150" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3</v>
+      </c>
+      <c r="E151" s="1">
+        <v>64</v>
+      </c>
+      <c r="F151" s="1">
+        <v>10</v>
+      </c>
+      <c r="G151" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>64</v>
+      </c>
+      <c r="F152" s="1">
+        <v>10</v>
+      </c>
+      <c r="G152" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1">
+        <v>64</v>
+      </c>
+      <c r="F153" s="1">
+        <v>10</v>
+      </c>
+      <c r="G153" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" s="1">
+        <v>64</v>
+      </c>
+      <c r="F154" s="1">
+        <v>10</v>
+      </c>
+      <c r="G154" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>64</v>
+      </c>
+      <c r="F155" s="1">
+        <v>20</v>
+      </c>
+      <c r="G155" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1">
+        <v>64</v>
+      </c>
+      <c r="F156" s="1">
+        <v>20</v>
+      </c>
+      <c r="G156" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1">
+        <v>64</v>
+      </c>
+      <c r="F157" s="1">
+        <v>20</v>
+      </c>
+      <c r="G157" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>64</v>
+      </c>
+      <c r="F158" s="1">
+        <v>20</v>
+      </c>
+      <c r="G158" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D159" s="1">
+        <v>2</v>
+      </c>
+      <c r="E159" s="1">
+        <v>64</v>
+      </c>
+      <c r="F159" s="1">
+        <v>20</v>
+      </c>
+      <c r="G159" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" s="1">
+        <v>64</v>
+      </c>
+      <c r="F160" s="1">
+        <v>20</v>
+      </c>
+      <c r="G160" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>64</v>
+      </c>
+      <c r="F161" s="1">
+        <v>20</v>
+      </c>
+      <c r="G161" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2</v>
+      </c>
+      <c r="E162" s="1">
+        <v>64</v>
+      </c>
+      <c r="F162" s="1">
+        <v>20</v>
+      </c>
+      <c r="G162" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D163" s="1">
+        <v>3</v>
+      </c>
+      <c r="E163" s="1">
+        <v>64</v>
+      </c>
+      <c r="F163" s="1">
+        <v>20</v>
+      </c>
+      <c r="G163" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
